--- a/db_data/region.xlsx
+++ b/db_data/region.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\IdeaProjects\QmServer\db_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A35298-3F4D-4D2F-B9FE-705D93EDB016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43D3B3-2958-40C4-B217-297B66878108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,90 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>中国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国台湾</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>HK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中国香港</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日本</t>
   </si>
   <si>
-    <t>KR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>韩国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新加坡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>马来西亚</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>泰国</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>印度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>US</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美国</t>
   </si>
   <si>
-    <t>TM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>土库曼斯坦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +82,74 @@
   </si>
   <si>
     <t>region_chs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北美洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧洲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TWN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HKG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>THA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,120 +478,170 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="1" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
